--- a/AI_Engine/Resultados/Resultados buenos/dataFrame - 70001353.xlsx
+++ b/AI_Engine/Resultados/Resultados buenos/dataFrame - 70001353.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deere-my.sharepoint.com/personal/gonzalezdiazsergio_johndeere_com/Documents/Desktop/Proyectos/Bot-Creacion-de-Pedidos/AI_Engine/Resultados/Resultados buenos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7AA41E5-9887-4AAB-92FA-110B5C08BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52B6811-D9ED-4F66-A190-2CE72AA33B45}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C7AA41E5-9887-4AAB-92FA-110B5C08BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E251A6-D1CB-4473-A1DC-1FAFDEFDD09B}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="13950" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="41">
   <si>
     <t>archivo</t>
   </si>
@@ -64,9 +67,6 @@
     <t>000014</t>
   </si>
   <si>
-    <t>Skyway</t>
-  </si>
-  <si>
     <t>R134478</t>
   </si>
   <si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>C:\Users\W8DE5P2\OneDrive-Deere&amp;Co\OneDrive - Deere &amp; Co\Desktop\Proveedores\CLIIENTES JOHN DEERE\Skyway txt\04-07-2022_11h-23m.pdf</t>
+  </si>
+  <si>
+    <t>70001353</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>1,680</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>3,315</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2,100</t>
   </si>
 </sst>
 </file>
@@ -189,10 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,14 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -538,107 +566,107 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2">
-        <v>90.66</v>
+        <v>89.953000000000003</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>90.66</v>
+        <v>89.953000000000003</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>90.66</v>
+        <v>89.953000000000003</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>-100</v>
@@ -648,17 +676,17 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="I6">
         <v>-100</v>
@@ -668,136 +696,136 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="I7">
-        <v>68.259</v>
+        <v>69.036000000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>90.724000000000004</v>
+        <v>89.39</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
       <c r="I9">
-        <v>90.724000000000004</v>
+        <v>89.39</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>90.724000000000004</v>
+        <v>89.39</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>-100</v>
@@ -807,17 +835,17 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>-100</v>
@@ -827,136 +855,136 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
       <c r="I13">
-        <v>91.372</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
       <c r="I14">
-        <v>91.372</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>91.372</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>91.372</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>-100</v>
@@ -966,17 +994,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18">
         <v>-100</v>
@@ -986,75 +1014,75 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>30</v>
       </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
       <c r="I19">
-        <v>91.009</v>
+        <v>90.18</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
       <c r="I20">
-        <v>91.284999999999997</v>
+        <v>90.483000000000004</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>-100</v>
@@ -1064,29 +1092,576 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>-100</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>89.953000000000003</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
       <c r="I24">
-        <f>AVERAGEIF(I2:I22, "&lt;&gt;-100")</f>
-        <v>89.245615384615377</v>
+        <v>89.953000000000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>89.953000000000003</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>69.036000000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>89.39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>89.39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31">
+        <v>89.39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>90.153000000000006</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>90.153000000000006</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36">
+        <v>90.153000000000006</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>90.153000000000006</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>90.18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>90.483000000000004</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>AVERAGEIF(I2:I43, "&gt;=0")</f>
+        <v>88.333846153846167</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
